--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ostn-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ostn-Npr3.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9231273333333333</v>
+        <v>0.912887</v>
       </c>
       <c r="N2">
-        <v>2.769382</v>
+        <v>2.738661</v>
       </c>
       <c r="O2">
-        <v>0.3911636608376866</v>
+        <v>0.3341311666818157</v>
       </c>
       <c r="P2">
-        <v>0.3911636608376867</v>
+        <v>0.3341311666818156</v>
       </c>
       <c r="Q2">
-        <v>1.581801456140889</v>
+        <v>1.564254392379333</v>
       </c>
       <c r="R2">
-        <v>14.236213105268</v>
+        <v>14.078289531414</v>
       </c>
       <c r="S2">
-        <v>0.3911636608376866</v>
+        <v>0.3341311666818157</v>
       </c>
       <c r="T2">
-        <v>0.3911636608376867</v>
+        <v>0.3341311666818156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.906408</v>
       </c>
       <c r="O3">
-        <v>0.5517638426210706</v>
+        <v>0.4766024939104103</v>
       </c>
       <c r="P3">
-        <v>0.5517638426210707</v>
+        <v>0.4766024939104103</v>
       </c>
       <c r="Q3">
         <v>2.231242155354666</v>
@@ -632,10 +632,10 @@
         <v>20.081179398192</v>
       </c>
       <c r="S3">
-        <v>0.5517638426210706</v>
+        <v>0.4766024939104103</v>
       </c>
       <c r="T3">
-        <v>0.5517638426210707</v>
+        <v>0.4766024939104103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1346883333333333</v>
+        <v>0.5170986666666667</v>
       </c>
       <c r="N4">
-        <v>0.404065</v>
+        <v>1.551296</v>
       </c>
       <c r="O4">
-        <v>0.05707249654124272</v>
+        <v>0.1892663394077741</v>
       </c>
       <c r="P4">
-        <v>0.05707249654124273</v>
+        <v>0.189266339407774</v>
       </c>
       <c r="Q4">
-        <v>0.2307917814788889</v>
+        <v>0.8860613204337778</v>
       </c>
       <c r="R4">
-        <v>2.07712603331</v>
+        <v>7.974551883904</v>
       </c>
       <c r="S4">
-        <v>0.05707249654124272</v>
+        <v>0.1892663394077741</v>
       </c>
       <c r="T4">
-        <v>0.05707249654124273</v>
+        <v>0.189266339407774</v>
       </c>
     </row>
   </sheetData>
